--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value115.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value115.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.046510439397546</v>
+        <v>0.5836138129234314</v>
       </c>
       <c r="B1">
-        <v>1.844784404715028</v>
+        <v>0.8064462542533875</v>
       </c>
       <c r="C1">
-        <v>4.466744159339323</v>
+        <v>7.038562297821045</v>
       </c>
       <c r="D1">
-        <v>2.427779533705648</v>
+        <v>1.81789231300354</v>
       </c>
       <c r="E1">
-        <v>0.9718136015890481</v>
+        <v>1.141706585884094</v>
       </c>
     </row>
   </sheetData>
